--- a/프로젝트결론/train_kospi90_kosdaq500/실제검증목록.xlsx
+++ b/프로젝트결론/train_kospi90_kosdaq500/실제검증목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\programing\Stock-Prediction-Project\Stock-Prediction-Project\프로젝트결론\train_kospi90_kosdaq500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403E9EE-242C-4301-A144-046062E37DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661EB9-4E51-4441-90DE-191C7235522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{08AD04DC-412F-46A8-B4FC-BC8DD90B3654}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>맥스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>원일특강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대영포장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이노롤스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030D989-648C-4D0E-AAEB-C8A7D8F11C79}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -598,8 +610,18 @@
       <c r="C2" s="3">
         <v>7990</v>
       </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="3">
         <v>7770</v>
+      </c>
+      <c r="H2" s="3">
+        <v>7530</v>
+      </c>
+      <c r="I2" s="3">
+        <f>(H2-G2)/G2</f>
+        <v>-3.0888030888030889E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -612,8 +634,18 @@
       <c r="C3" s="3">
         <v>2060</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="3">
         <v>2060</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2050</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I9" si="0">(H3-G3)/G3</f>
+        <v>-4.8543689320388345E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -626,8 +658,18 @@
       <c r="C4" s="3">
         <v>2950</v>
       </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
       <c r="G4" s="3">
         <v>2850</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2940</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.1578947368421054E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -640,8 +682,18 @@
       <c r="C5" s="3">
         <v>950</v>
       </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="3">
         <v>901</v>
+      </c>
+      <c r="H5" s="3">
+        <v>925</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.6637069922308545E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -654,8 +706,18 @@
       <c r="C6" s="3">
         <v>887</v>
       </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="3">
         <v>855</v>
+      </c>
+      <c r="H6" s="3">
+        <v>857</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>2.3391812865497076E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -668,8 +730,18 @@
       <c r="C7" s="3">
         <v>3235</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="3">
         <v>3040</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2965</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.4671052631578948E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -682,11 +754,18 @@
       <c r="C8" s="3">
         <v>26600</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="G8" s="3">
         <v>26250</v>
       </c>
+      <c r="H8" s="3">
+        <v>26050</v>
+      </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>-7.619047619047619E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -699,11 +778,18 @@
       <c r="C9" s="3">
         <v>24950</v>
       </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="3">
         <v>23750</v>
       </c>
+      <c r="H9" s="3">
+        <v>23800</v>
+      </c>
       <c r="I9" s="3">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2.1052631578947368E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -720,7 +806,8 @@
         <v>482</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <f>SUM(I4:I9)</f>
+        <v>3.0370361484547484E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -863,10 +950,28 @@
         <v>9220</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I1048576" s="3">
         <f>SUM(I8:I1048575)</f>
-        <v>9</v>
+        <v>2.4856577023394603E-2</v>
       </c>
     </row>
   </sheetData>

--- a/프로젝트결론/train_kospi90_kosdaq500/실제검증목록.xlsx
+++ b/프로젝트결론/train_kospi90_kosdaq500/실제검증목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\programing\Stock-Prediction-Project\Stock-Prediction-Project\프로젝트결론\train_kospi90_kosdaq500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661EB9-4E51-4441-90DE-191C7235522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E9EA23-BF4D-4118-AF9F-2F2A435C1DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{08AD04DC-412F-46A8-B4FC-BC8DD90B3654}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>맥스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,11 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SK하이닉스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이노롤스</t>
+    <t>이노룰스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8030D989-648C-4D0E-AAEB-C8A7D8F11C79}">
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:I1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -957,20 +953,24 @@
       <c r="B23" s="2">
         <v>45159</v>
       </c>
+      <c r="C23" s="3">
+        <v>1194</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="1048576" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I1048576" s="3">
-        <f>SUM(I8:I1048575)</f>
+      <c r="B24" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7870</v>
+      </c>
+    </row>
+    <row r="1048575" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I1048575" s="3">
+        <f>SUM(I8:I1048574)</f>
         <v>2.4856577023394603E-2</v>
       </c>
     </row>
